--- a/Part_2_tables/match_on_url_http_count.xlsx
+++ b/Part_2_tables/match_on_url_http_count.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_url_http_count.xlsx
+++ b/Part_2_tables/match_on_url_http_count.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_url_http_count.xlsx
+++ b/Part_2_tables/match_on_url_http_count.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3">
